--- a/biology/Médecine/Tests_de_présomption_et_tests_de_confirmation/Tests_de_présomption_et_tests_de_confirmation.xlsx
+++ b/biology/Médecine/Tests_de_présomption_et_tests_de_confirmation/Tests_de_présomption_et_tests_de_confirmation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tests_de_pr%C3%A9somption_et_tests_de_confirmation</t>
+          <t>Tests_de_présomption_et_tests_de_confirmation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tests de présomption, en médecine et en médecine légale, analysent un échantillon et établissent l'un des éléments suivants :
 L'échantillon n'est certainement pas une certaine substance. (Pas de faux négatifs) ;
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tests_de_pr%C3%A9somption_et_tests_de_confirmation</t>
+          <t>Tests_de_présomption_et_tests_de_confirmation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Exemples de tests présomptifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Test de phosphatase acide pour le sperme.
 Test de thiocyanate de cobalt pour la cocaïne.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tests_de_pr%C3%A9somption_et_tests_de_confirmation</t>
+          <t>Tests_de_présomption_et_tests_de_confirmation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +570,12 @@
           <t>Problèmes légaux posés par les tests présomptifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En mars 2010, une ressortissante philippine a été arrêtée par le service australien des douanes et de la protection des frontières à l'aéroport de Melbourne après que plusieurs tests présomptifs sur 2,4 kg de thé glacé dans ses bagages ont donné des résultats positifs pour la méthamphétamine et l'amphétamine. Par la suite, elle a été remise à la police fédérale australienne et détenue pendant cinq jours en attendant d'être jugée pour importation d'une quantité commerciale d'une drogue contrôlée aux frontières.
-Une analyse ultérieure a confirmé que la substance était en effet du thé glacé aromatisé au citron, et la charge de drogue a été supprimée. Le président de la magistrature a ordonné à titre exceptionnel que la prévenue soit immédiatement remise en liberté dans la salle d'audience et a également ordonné au directeur des poursuites pénales de lui verser cinq mille dollars en indemnisation[1].
+Une analyse ultérieure a confirmé que la substance était en effet du thé glacé aromatisé au citron, et la charge de drogue a été supprimée. Le président de la magistrature a ordonné à titre exceptionnel que la prévenue soit immédiatement remise en liberté dans la salle d'audience et a également ordonné au directeur des poursuites pénales de lui verser cinq mille dollars en indemnisation.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tests_de_pr%C3%A9somption_et_tests_de_confirmation</t>
+          <t>Tests_de_présomption_et_tests_de_confirmation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Recommandations de la FDA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Food and Drug Administration (FDA) a publié une recommandation de mise en marché et d'étiquetage pour les tests de dépistage des drogues. Sa disponibilité a été annoncée dans le Federal Register, volume 68, numéro 231, le 2 décembre 2003 et est répertoriée sous « Avis ». Il est important de comprendre la nature des tests présomptifs en raison de son utilisation répandue par les employeurs et les entités publiques. La plupart des gens qui passent un test de dépistage de drogue passent un test de présomption, moins cher et plus rapide que les autres méthodes de test. Cependant, il est moins précis et peut donner de faux positifs. La FDA recommande de réaliser des tests de confirmation et de placer une étiquette d'avertissement sur le test de dépistage présumé : « Ce test ne fournit qu'un résultat préliminaire. La considération clinique et le jugement professionnel devraient être appliqués à tout résultat de test de drogue, en évaluant un résultat positif préliminaire. Pour obtenir un résultat analytique confirmé, une autre méthode chimique plus spécifique est nécessaire. La chromatographie en phase gazeuse/spectrométrie de masse (GC/MS) est la méthode de confirmation recommandée. »
 </t>
